--- a/doors-detector/results/house20_door_no_door.xlsx
+++ b/doors-detector/results/house20_door_no_door.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6570921458257085</v>
+        <v>0.688826247605931</v>
       </c>
       <c r="F2" t="n">
         <v>3500</v>
       </c>
       <c r="G2" t="n">
-        <v>2609</v>
+        <v>2696</v>
       </c>
       <c r="H2" t="n">
-        <v>891</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6346133009687419</v>
+        <v>0.6266855887078623</v>
       </c>
       <c r="F3" t="n">
         <v>167</v>
       </c>
       <c r="G3" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H3" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8075328627972742</v>
+        <v>0.813035271549828</v>
       </c>
       <c r="F4" t="n">
         <v>3500</v>
       </c>
       <c r="G4" t="n">
-        <v>2977</v>
+        <v>2989</v>
       </c>
       <c r="H4" t="n">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6663697304886375</v>
+        <v>0.6640307897575399</v>
       </c>
       <c r="F5" t="n">
         <v>167</v>
       </c>
       <c r="G5" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H5" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6976754814539178</v>
+        <v>0.7141417880317471</v>
       </c>
       <c r="F6" t="n">
         <v>3500</v>
       </c>
       <c r="G6" t="n">
-        <v>2715</v>
+        <v>2755</v>
       </c>
       <c r="H6" t="n">
-        <v>785</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6894701371214774</v>
+        <v>0.7025209551860261</v>
       </c>
       <c r="F7" t="n">
         <v>167</v>
       </c>
       <c r="G7" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H7" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7601063054823249</v>
+        <v>0.7757792534385907</v>
       </c>
       <c r="F8" t="n">
         <v>3500</v>
       </c>
       <c r="G8" t="n">
-        <v>2880</v>
+        <v>2916</v>
       </c>
       <c r="H8" t="n">
-        <v>620</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7882656546810907</v>
+        <v>0.8012550414466698</v>
       </c>
       <c r="F9" t="n">
         <v>167</v>
@@ -728,7 +728,7 @@
         <v>150</v>
       </c>
       <c r="H9" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
